--- a/Blind 75 cheatsheet.xlsx
+++ b/Blind 75 cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GIT\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CBC258-D393-4A43-B9CF-1E597B868F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FD7A26-25DD-4049-8BD3-B799C429D474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind 75" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
   <si>
     <t>Domain</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Use hashmap to store number, and check if the target number is present in the hashmap. Target number = (sum-current_number)</t>
-  </si>
-  <si>
-    <t>121. Best Time to Buy and Sell Stock</t>
   </si>
   <si>
     <t>Use 2 pointers left and right, if the slope is negative make l=r and r+1, else keep increasing r and update the max profit</t>
@@ -92,6 +89,279 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=86CQq3pKSUw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array </t>
+  </si>
+  <si>
+    <t>Use Hashset to store number if the number is first encountered, then for each number keep on checking if number exists in hashset</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>3 Sum</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Word Break Problem</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Alien Dictionary (Leetcode Premium)</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree (Leetcode Premium)</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph (Leetcode Premium)</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Meeting Rooms (Leetcode Premium)</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II (Leetcode Premium)</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List</t>
+  </si>
+  <si>
+    <t>Detect Cycle in a Linked List</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Merge K Sorted Lists</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End Of List</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings (Leetcode Premium)</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Invert/Flip Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of BST</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Add and Search Word</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Help Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/bNvIQI2wAjk </t>
+  </si>
+  <si>
+    <t>for a number, have to calculate the prefix and postfixmultiplication, that way can be resolved. View video for the two optimal solutions</t>
+  </si>
+  <si>
+    <t>Use Kadanes algorithm in Algo sheet</t>
+  </si>
+  <si>
+    <t>in line with Kadanes algorithm, however due to product of negative numbers, need to track the max and min product for the array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/lXVy6YWFcRM </t>
   </si>
 </sst>
 </file>
@@ -123,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +406,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -161,16 +437,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -179,133 +468,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -324,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -337,62 +527,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -674,502 +851,1050 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="53" style="15" customWidth="1"/>
+    <col min="4" max="4" width="115.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="11"/>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="11"/>
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="11"/>
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="11"/>
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="11"/>
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="11"/>
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="11"/>
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="11"/>
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="11"/>
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="11"/>
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="11"/>
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="11"/>
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="11"/>
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="11"/>
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="10"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="11"/>
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="10"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="11"/>
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="10"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="11"/>
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="11"/>
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="10"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="11"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{90D273A6-DA4A-4376-A2E7-65386D0F9548}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://leetcode.com/problems/maximum-subarray/" xr:uid="{4A0C5F1D-7F78-436D-93D6-7AF1C7F8B1CB}"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{61AED21F-D905-4A9C-A2B2-1722F531F570}"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{65FC69CB-C69D-4D40-9162-A56EC180642E}"/>
+    <hyperlink ref="C9" r:id="rId5" display="https://leetcode.com/problems/search-in-rotated-sorted-array/" xr:uid="{7757549D-D509-4AA3-8E66-74D592A2B65E}"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://leetcode.com/problems/3sum/" xr:uid="{B5120480-3C06-484B-A1DF-67011747A999}"/>
+    <hyperlink ref="C11" r:id="rId7" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{1C1ABE16-2D69-4031-A2A3-8FBCE5BC9962}"/>
+    <hyperlink ref="C2" r:id="rId8" display="https://leetcode.com/problems/two-sum/" xr:uid="{E2E0BAF6-F28F-40DC-9FBE-C32604438599}"/>
+    <hyperlink ref="C3" r:id="rId9" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{F51ABA65-9471-4B0A-8635-95152794FE8F}"/>
+    <hyperlink ref="C4" r:id="rId10" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{D4541F9F-4FED-45F3-A996-18446F67A314}"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://leetcode.com/problems/sum-of-two-integers/" xr:uid="{FC5A9C69-5678-4302-A388-45C431A38AF3}"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://leetcode.com/problems/number-of-1-bits/" xr:uid="{1ACE32C8-FEB8-471F-8F04-A7C6458861B3}"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://leetcode.com/problems/counting-bits/" xr:uid="{59FD9745-7373-4D99-8D67-209D59DB8523}"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://leetcode.com/problems/missing-number/" xr:uid="{35C2E4A8-CEB2-48B6-9D12-1837FFF743C9}"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://leetcode.com/problems/reverse-bits/" xr:uid="{80887518-AF86-4DE5-8D8E-D245D5BC595B}"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://leetcode.com/problems/climbing-stairs/" xr:uid="{D2E37BC8-BBB4-48BE-B7F4-A7C68C918A32}"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://leetcode.com/problems/coin-change/" xr:uid="{31CB3E15-8B09-41AA-ABF4-FAE4681D9475}"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://leetcode.com/problems/longest-increasing-subsequence/" xr:uid="{237A643B-09C6-4F95-94D9-888537885DBC}"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://leetcode.com/problems/longest-common-subsequence/" xr:uid="{76359BAD-0D93-4C3B-80C4-18230DA293B8}"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://leetcode.com/problems/word-break/" xr:uid="{0734ABBD-7DA1-45F2-A19B-CB10C10BE5D2}"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://leetcode.com/problems/combination-sum-iv/" xr:uid="{1A5A46D7-7CE4-4260-84EF-E2E2B6489E45}"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://leetcode.com/problems/house-robber/" xr:uid="{6AF54CFE-F7DB-43F2-A338-105E101F8519}"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://leetcode.com/problems/house-robber-ii/" xr:uid="{0CFB65C2-E3C9-43D9-BC8A-3898A085B94C}"/>
+    <hyperlink ref="C25" r:id="rId24" display="https://leetcode.com/problems/decode-ways/" xr:uid="{6C6462CE-3DC7-4841-A482-8506871F94A4}"/>
+    <hyperlink ref="C26" r:id="rId25" display="https://leetcode.com/problems/unique-paths/" xr:uid="{AC03C663-A15C-4F4F-84DB-84DA3A9D92CC}"/>
+    <hyperlink ref="C27" r:id="rId26" display="https://leetcode.com/problems/jump-game/" xr:uid="{A1360045-F385-42B9-AEE6-253DE8C47847}"/>
+    <hyperlink ref="C28" r:id="rId27" display="https://leetcode.com/problems/clone-graph/" xr:uid="{85585048-41D5-4139-8167-DF02092E4A7A}"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://leetcode.com/problems/course-schedule/" xr:uid="{E8E520E1-D317-4EBF-8587-6DE214DC323C}"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://leetcode.com/problems/pacific-atlantic-water-flow/" xr:uid="{9AFF422B-1CF9-45A8-B9C3-0DEA475D5D59}"/>
+    <hyperlink ref="C31" r:id="rId30" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{21CF4D53-24D4-46C1-B73F-8ECC49A11348}"/>
+    <hyperlink ref="C32" r:id="rId31" display="https://leetcode.com/problems/longest-consecutive-sequence/" xr:uid="{DC1EA9ED-5FBF-4BC8-8D24-ED144A31DC0D}"/>
+    <hyperlink ref="C33" r:id="rId32" display="https://leetcode.com/problems/alien-dictionary/" xr:uid="{A025121F-A5E3-43AE-B817-79D4790BCBCC}"/>
+    <hyperlink ref="C34" r:id="rId33" display="https://leetcode.com/problems/graph-valid-tree/" xr:uid="{1B915A10-18F4-464D-AADD-C245BBC4FCB7}"/>
+    <hyperlink ref="C35" r:id="rId34" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/" xr:uid="{7A990443-757C-4A4E-8A2D-1F7823D031BC}"/>
+    <hyperlink ref="C36" r:id="rId35" display="https://leetcode.com/problems/insert-interval/" xr:uid="{3407D245-6D68-4479-83A4-238120B01EDC}"/>
+    <hyperlink ref="C37" r:id="rId36" display="https://leetcode.com/problems/merge-intervals/" xr:uid="{794F4BA5-6742-479F-B3C5-322F6D81EDE7}"/>
+    <hyperlink ref="C38" r:id="rId37" display="https://leetcode.com/problems/non-overlapping-intervals/" xr:uid="{BF85F42C-320F-40C5-8491-2F2F9B13DA40}"/>
+    <hyperlink ref="C39" r:id="rId38" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{D1F8D4F6-E771-446E-98C8-C9F7BC509684}"/>
+    <hyperlink ref="C40" r:id="rId39" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{5C196A1D-E774-45A8-AB50-AE46EE0F26A4}"/>
+    <hyperlink ref="C41" r:id="rId40" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{447D99F9-55FE-4519-977D-C05694878979}"/>
+    <hyperlink ref="C42" r:id="rId41" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{8A1F7DD3-B786-4366-8928-DCCBD53DEA77}"/>
+    <hyperlink ref="C43" r:id="rId42" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{87CDB1D3-FA2E-4778-AAFE-0B8C88911D34}"/>
+    <hyperlink ref="C44" r:id="rId43" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{3E321624-E151-4045-9E33-B5D2C4B510B3}"/>
+    <hyperlink ref="C45" r:id="rId44" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{9F277575-59ED-4A77-A7D7-EA3564D2EF7C}"/>
+    <hyperlink ref="C46" r:id="rId45" display="https://leetcode.com/problems/reorder-list/" xr:uid="{3BC84A71-2B38-4D22-8C5B-A063106506E9}"/>
+    <hyperlink ref="C47" r:id="rId46" display="https://leetcode.com/problems/set-matrix-zeroes/" xr:uid="{99A2738B-4761-4B8C-B453-2948667FBD64}"/>
+    <hyperlink ref="C48" r:id="rId47" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{801CAAF2-BA4B-4649-BC36-3714F6887682}"/>
+    <hyperlink ref="C49" r:id="rId48" display="https://leetcode.com/problems/rotate-image/" xr:uid="{00B5E41F-15D3-44D6-BCF9-906D27C7A2AD}"/>
+    <hyperlink ref="C50" r:id="rId49" display="https://leetcode.com/problems/word-search/" xr:uid="{EBDEC33D-D8E6-4DE4-AA57-9325CC94070A}"/>
+    <hyperlink ref="C51" r:id="rId50" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{F40CB691-F412-45D9-86DC-8841EDABB099}"/>
+    <hyperlink ref="C52" r:id="rId51" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{ACB5E5A5-0633-42B2-A407-52E8DC703405}"/>
+    <hyperlink ref="C53" r:id="rId52" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{41C58802-32E3-4824-8D38-47C5D72D624C}"/>
+    <hyperlink ref="C54" r:id="rId53" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{67DDB1E5-DE61-4EAC-85A3-6B4069ABA1E0}"/>
+    <hyperlink ref="C55" r:id="rId54" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{481F4DDC-9FC0-4021-A72E-F24A01FD1742}"/>
+    <hyperlink ref="C56" r:id="rId55" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{01A74BC8-8412-4261-B437-9B3E13D4F2A1}"/>
+    <hyperlink ref="C57" r:id="rId56" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{76AE9E30-2C61-427E-BD57-4F6D0F1A20C9}"/>
+    <hyperlink ref="C58" r:id="rId57" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{D7A9ECFE-B559-41DB-8EA5-44E1B9A3B9E7}"/>
+    <hyperlink ref="C59" r:id="rId58" display="https://leetcode.com/problems/palindromic-substrings/" xr:uid="{0C341338-3C90-4F31-AC0F-691A0E6178EB}"/>
+    <hyperlink ref="C60" r:id="rId59" display="https://leetcode.com/problems/encode-and-decode-strings/" xr:uid="{2A6CD95E-8F46-4830-BB70-32DB810151F6}"/>
+    <hyperlink ref="C61" r:id="rId60" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/" xr:uid="{36D474EF-E3F4-487B-A4EC-8517B9187732}"/>
+    <hyperlink ref="C62" r:id="rId61" display="https://leetcode.com/problems/same-tree/" xr:uid="{848651A6-0C33-45A5-90A8-6D899C834F86}"/>
+    <hyperlink ref="C63" r:id="rId62" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{AA27B64A-D5FB-4788-B759-B46D2B78D467}"/>
+    <hyperlink ref="C64" r:id="rId63" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{133F7429-6376-4DA5-B74F-70A5FEA506D4}"/>
+    <hyperlink ref="C65" r:id="rId64" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{5CBBECFB-9E0C-4E9A-888E-3C947F941FC1}"/>
+    <hyperlink ref="C66" r:id="rId65" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{DF5C2517-BA74-4F8A-969B-8A09356FEF9A}"/>
+    <hyperlink ref="C67" r:id="rId66" display="https://leetcode.com/problems/subtree-of-another-tree/" xr:uid="{7E7AAFEA-E8D1-43B2-9C33-287BA0BC394C}"/>
+    <hyperlink ref="C68" r:id="rId67" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{8092CAC9-6151-41D5-8559-968118F48F6B}"/>
+    <hyperlink ref="C69" r:id="rId68" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{E978B444-D10D-4638-AE6C-8B0470B5BE2E}"/>
+    <hyperlink ref="C70" r:id="rId69" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/" xr:uid="{9D7F162A-34E0-44B7-BC55-81B2F9BD3DE9}"/>
+    <hyperlink ref="C71" r:id="rId70" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{EFE45CD2-BECF-4CE7-BBCA-A8F757485D1C}"/>
+    <hyperlink ref="C72" r:id="rId71" display="https://leetcode.com/problems/implement-trie-prefix-tree/" xr:uid="{76F63E4B-1B72-4621-A611-9DB889E1CAEF}"/>
+    <hyperlink ref="C73" r:id="rId72" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/" xr:uid="{811B7494-0DBA-44A1-914B-8EF185E25820}"/>
+    <hyperlink ref="C74" r:id="rId73" display="https://leetcode.com/problems/word-search-ii/" xr:uid="{BFB2A322-E3D8-41C2-B49D-428AE87DD236}"/>
+    <hyperlink ref="C75" r:id="rId74" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{58EEDD2C-C28D-4C63-A3CD-7B04C185E8DF}"/>
+    <hyperlink ref="C76" r:id="rId75" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{1E8E3549-B9AC-40F4-B5C7-172502B9BF29}"/>
+    <hyperlink ref="C77" r:id="rId76" display="https://leetcode.com/problems/find-median-from-data-stream/" xr:uid="{57CFF2A3-7378-4CF7-8A79-CDA750EBBBD6}"/>
+    <hyperlink ref="E5" r:id="rId77" xr:uid="{2CB97602-D527-4D56-8340-AFF1BA3A7404}"/>
+    <hyperlink ref="E7" r:id="rId78" xr:uid="{DC6C85AD-4976-4301-A6DB-19DE7BC67D1E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
 
@@ -1177,9 +1902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0743BF-9D86-49C0-8E80-A855100ED9F1}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,31 +1917,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="27" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Blind 75 cheatsheet.xlsx
+++ b/Blind 75 cheatsheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GIT\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FD7A26-25DD-4049-8BD3-B799C429D474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F58EBD-C9BF-471B-9D01-FC436781DAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind 75" sheetId="1" r:id="rId1"/>
-    <sheet name="Algorithms" sheetId="2" r:id="rId2"/>
+    <sheet name="TOP INterview Questions" sheetId="3" r:id="rId2"/>
+    <sheet name="Algorithms" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
   <si>
     <t>Domain</t>
   </si>
@@ -362,6 +363,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/lXVy6YWFcRM </t>
+  </si>
+  <si>
+    <t>binary search check for inflection point in the array. Inflection point is when value to the left of it is greater or the value to the right of it is smaller</t>
+  </si>
+  <si>
+    <t>binary search with if-else case handling</t>
+  </si>
+  <si>
+    <t>watch video…complex to write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 parameters to optimize, the width and the height. SO first max width by using two pointers left and right from the two extremes. Incement to the center the one that is smallest and update the max area. </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/featured/card/top-interview-questions-easy/92/array/</t>
   </si>
 </sst>
 </file>
@@ -514,10 +530,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,6 +585,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -853,29 +886,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="53" style="15" customWidth="1"/>
-    <col min="4" max="4" width="115.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="53" style="14" customWidth="1"/>
+    <col min="4" max="4" width="115.21875" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -883,934 +916,942 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="23" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="23" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="23" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="24"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="24"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1899,6 +1940,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56FDFA9-271C-4299-89F7-5FCE88DE6480}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0743BF-9D86-49C0-8E80-A855100ED9F1}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1909,38 +1971,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="19.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="70.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="70.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Blind 75 cheatsheet.xlsx
+++ b/Blind 75 cheatsheet.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GIT\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F58EBD-C9BF-471B-9D01-FC436781DAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF56036-0ED5-447E-9A50-693234BC5126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind 75" sheetId="1" r:id="rId1"/>
     <sheet name="TOP INterview Questions" sheetId="3" r:id="rId2"/>
     <sheet name="Algorithms" sheetId="2" r:id="rId3"/>
+    <sheet name="Interesting Questions" sheetId="4" r:id="rId4"/>
+    <sheet name="Problem Mnemonics" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="167">
   <si>
     <t>Domain</t>
   </si>
@@ -378,6 +380,221 @@
   </si>
   <si>
     <t>https://leetcode.com/explore/featured/card/top-interview-questions-easy/92/array/</t>
+  </si>
+  <si>
+    <t>Two pointer</t>
+  </si>
+  <si>
+    <t>LC 189. Rotate Array</t>
+  </si>
+  <si>
+    <t>The solution is to reverse 3 times. First is to reverse the entire array , then rotate till k and then the values after k. Rotaion code is a while loop with swapping in python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/BHr381Guz3Y </t>
+  </si>
+  <si>
+    <t>Two Pointer/Linked List</t>
+  </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>The 2 pointer solution involves creating a dummy head with left pointer and the right pointer 'n' steps further. Loop this until right is None and make left = left.next.next.
+There also exists a recursion method. Check the Discussion tab.</t>
+  </si>
+  <si>
+    <t>189. Rotate array</t>
+  </si>
+  <si>
+    <t>Given an array, rotate the array to the right by k steps, where k is non-negative.
+Reverse the entire array , then reverse from 0 to k , then k+1 to end</t>
+  </si>
+  <si>
+    <t>Sliding Window/Two pointer</t>
+  </si>
+  <si>
+    <t>567. Permutation in String</t>
+  </si>
+  <si>
+    <t>Medium/hard solution check out video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=UbyhOgBN834&amp;t=1s </t>
+  </si>
+  <si>
+    <t>BFS/DFS</t>
+  </si>
+  <si>
+    <t>116. Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/U4hFQCa1Cq0 </t>
+  </si>
+  <si>
+    <t>you only need one pointer to the left most node of a layer, others must be connectedone layer above through the next. Rest all can be traversed. Check solution for full understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS/Dynamic </t>
+  </si>
+  <si>
+    <t>542. 01 Matrix</t>
+  </si>
+  <si>
+    <t>BFS - Iterates through array, keeps zeros  unchanges, makes rest as inf and add nodes to queue. Pop queue add 1 to neighbors distance accordingy.
+Dyanmic - Iterate once from left and down setting minimum values. And secon time from right to up. Check submission</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>994. Rotting Oranges</t>
+  </si>
+  <si>
+    <t>Uses multisource BFS to traverse and convert frsh to rotten. Check video for details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=y704fEOx0s0&amp;t=1s </t>
+  </si>
+  <si>
+    <t>Can be solved iteratively(optimal) and recursion. For iterative, start with 2 pointers and a temp varaible. Think the soulution is intuitive. Recursion is abrain turner, plot it and understand. Check the video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/G0_I-ZF0S38 </t>
+  </si>
+  <si>
+    <t>77. Combinations</t>
+  </si>
+  <si>
+    <t>Backtracking/Recursion</t>
+  </si>
+  <si>
+    <t>Complex backtracking. Watch video</t>
+  </si>
+  <si>
+    <t>Problem Category</t>
+  </si>
+  <si>
+    <t>All backtracking problems, require to build a tree type iteration, the function remains the same just operation changes with task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/permutations/discuss/18284/Backtrack-Summary%3A-General-Solution-for-10-Questions!!!!!!!!-Python-(Combination-Sum-Subsets-Permutation-Palindrome) </t>
+  </si>
+  <si>
+    <t>46. Permutations</t>
+  </si>
+  <si>
+    <t>Use the backtracking "problem mnemonics"</t>
+  </si>
+  <si>
+    <t>Can be solved in Top down approach (recursion+memoization) or bottom up aproach (Dynamic Prog). Top down is straight forward, plot graph and its understandable. DP solution is fibonnaci series and try to do it using no array and only 2 variables.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Good problem. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The max amount at a instance i can be the max(num[i] + summ till (i-2) or sum till i-1</t>
+    </r>
+  </si>
+  <si>
+    <t>Bit manipulation</t>
+  </si>
+  <si>
+    <t>231. Power of Two</t>
+  </si>
+  <si>
+    <t>Detailed bit description - https://leetcode.com/problems/power-of-two/discuss/1638707/PythonC%2B%2BJava-Detailly-Explain-Why-n-and-n-1-Works-oror-1-Line-oror-100-Faster-oror-Easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be done iteratively or smart bit manipulation. Iteratively - modulo n (gets the last bit) add it to count and shift number by one to right.
+For bit manipulation go on n&amp;(n-1) until n ==0, and increment count. This works </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Good problem. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iterate with I from 0-31, right shift number by i and &amp; with 1. This extracts the bit in units place. Now place this bit in 31st place of a new number. This done by orring 0 with the bit left shifted 31-i places</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify Optimal Solution from Constraints </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Max Complexity</t>
+  </si>
+  <si>
+    <t>10^18</t>
+  </si>
+  <si>
+    <t>10^4</t>
+  </si>
+  <si>
+    <t>10^8</t>
+  </si>
+  <si>
+    <t>O(N)</t>
+  </si>
+  <si>
+    <t>O(logN)</t>
+  </si>
+  <si>
+    <t>O(N^2)</t>
+  </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>O(Nlog(N))</t>
+  </si>
+  <si>
+    <t>N^3</t>
+  </si>
+  <si>
+    <t>85-90</t>
+  </si>
+  <si>
+    <t>O(N^4)</t>
+  </si>
+  <si>
+    <t>O(2^N)</t>
+  </si>
+  <si>
+    <t>N!</t>
   </si>
 </sst>
 </file>
@@ -530,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -602,6 +819,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -886,9 +1115,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,17 +1302,19 @@
       </c>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="29" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -1116,10 +1347,12 @@
       <c r="B16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="24" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -1128,10 +1361,12 @@
       <c r="B17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="24" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -1200,10 +1435,12 @@
       <c r="B23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="24" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -1313,7 +1550,7 @@
       </c>
       <c r="D32" s="24"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1325,7 +1562,7 @@
       </c>
       <c r="D33" s="24"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1337,7 +1574,7 @@
       </c>
       <c r="D34" s="24"/>
     </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1349,7 +1586,7 @@
       </c>
       <c r="D35" s="24"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1361,7 +1598,7 @@
       </c>
       <c r="D36" s="24"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1373,7 +1610,7 @@
       </c>
       <c r="D37" s="24"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1385,7 +1622,7 @@
       </c>
       <c r="D38" s="24"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1397,7 +1634,7 @@
       </c>
       <c r="D39" s="24"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1409,19 +1646,24 @@
       </c>
       <c r="D40" s="24"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="24"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1433,7 +1675,7 @@
       </c>
       <c r="D42" s="24"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1445,7 +1687,7 @@
       </c>
       <c r="D43" s="24"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1457,7 +1699,7 @@
       </c>
       <c r="D44" s="24"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1469,7 +1711,7 @@
       </c>
       <c r="D45" s="24"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -1481,7 +1723,7 @@
       </c>
       <c r="D46" s="24"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1493,7 +1735,7 @@
       </c>
       <c r="D47" s="24"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -1933,9 +2175,10 @@
     <hyperlink ref="C77" r:id="rId76" display="https://leetcode.com/problems/find-median-from-data-stream/" xr:uid="{57CFF2A3-7378-4CF7-8A79-CDA750EBBBD6}"/>
     <hyperlink ref="E5" r:id="rId77" xr:uid="{2CB97602-D527-4D56-8340-AFF1BA3A7404}"/>
     <hyperlink ref="E7" r:id="rId78" xr:uid="{DC6C85AD-4976-4301-A6DB-19DE7BC67D1E}"/>
+    <hyperlink ref="E41" r:id="rId79" xr:uid="{DC55541E-51CF-4028-B660-9D4B0F68E90E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
 
@@ -1966,7 +2209,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,4 +2255,333 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33D644C-0702-4680-A647-3F23A1C17400}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{508F3E18-DC81-439A-90BD-BE33034915B7}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{84C2B14F-8230-4724-B416-F222516D4BF6}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{F9E75F9B-11CD-4C5B-915D-2DC84AE203D1}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{085CA4B8-C036-44F7-9DDB-95783FFC4FA8}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{125CBD72-80F0-45E7-9C78-47683AA1F5DE}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{A6AE1D5B-961F-4CF3-B2DD-469B5CB0EE75}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{C4A35233-2ABA-4E0F-B0FF-99999FCE39F7}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{BAEF9715-1B3D-41AF-9D00-A4AE4669FA03}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{1EB4CEF5-9394-4059-885F-59A37886C136}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{E6DCEF1D-3B95-41C7-99B6-B96235FD5A67}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{64A7E8A5-C174-4CBA-85D9-B9EC802344EA}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{375FA4AF-5531-41AC-B5A3-F1286E748366}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{5C8C17CF-FF27-44EF-9F7D-5697E279767F}"/>
+    <hyperlink ref="C11" r:id="rId14" xr:uid="{A509631F-AAC7-443C-B840-A737F2A0F22D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2E9C92-4073-4ED7-AA15-F248F8C57B6A}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>500</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{FBC2CEF9-BEC4-4A67-9632-B5DF9D48C0BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Blind 75 cheatsheet.xlsx
+++ b/Blind 75 cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GIT\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF56036-0ED5-447E-9A50-693234BC5126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F4D111-6C10-44E6-B2BE-BE6EAC416E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind 75" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <sheet name="Interesting Questions" sheetId="4" r:id="rId4"/>
     <sheet name="Problem Mnemonics" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="174">
   <si>
     <t>Domain</t>
   </si>
@@ -595,6 +606,27 @@
   </si>
   <si>
     <t>N!</t>
+  </si>
+  <si>
+    <t>Convert word into bitwise sequence of length 26 (all lowercase alphabets). Increment while adding one and decrement in the other.</t>
+  </si>
+  <si>
+    <t>Maintain a hashmap of the bitwise sequence of a word as key and append. Use (ord function and defaultdict(list) )</t>
+  </si>
+  <si>
+    <t>49. Group Anagram</t>
+  </si>
+  <si>
+    <t>Convert word into a bit sequence of 26 length and use this sequence as a hashmap key.</t>
+  </si>
+  <si>
+    <t>Can be done without heap. Heap solution requires getting count of a number and storing in hashmap. Then create a heap with these counts and then get the top k. The time taken would be O(mlgn) but alternatively better way is to use bucket sort. After getting the count of each int, add i to buckets indexed on count. Then iterate in reverse and get k values.</t>
+  </si>
+  <si>
+    <t>Heap/Bucket</t>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements</t>
   </si>
 </sst>
 </file>
@@ -786,13 +818,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -831,6 +860,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,29 +1147,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="53" style="14" customWidth="1"/>
-    <col min="4" max="4" width="115.21875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="115.21875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1154,7 +1186,7 @@
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1168,7 +1200,7 @@
       <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1182,7 +1214,7 @@
       <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1193,13 +1225,13 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1213,7 +1245,7 @@
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1224,13 +1256,13 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1241,10 +1273,10 @@
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1255,10 +1287,10 @@
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1269,10 +1301,10 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1283,10 +1315,10 @@
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1300,7 +1332,7 @@
       <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -1312,7 +1344,7 @@
       <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1326,7 +1358,7 @@
       <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -1338,7 +1370,7 @@
       <c r="C15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -1350,7 +1382,7 @@
       <c r="C16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1364,7 +1396,7 @@
       <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1378,7 +1410,7 @@
       <c r="C18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -1390,7 +1422,7 @@
       <c r="C19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -1402,7 +1434,7 @@
       <c r="C20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -1414,7 +1446,7 @@
       <c r="C21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -1426,7 +1458,7 @@
       <c r="C22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1435,10 +1467,10 @@
       <c r="B23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1452,7 +1484,7 @@
       <c r="C24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -1464,7 +1496,7 @@
       <c r="C25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
@@ -1476,7 +1508,7 @@
       <c r="C26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -1488,7 +1520,7 @@
       <c r="C27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -1500,7 +1532,7 @@
       <c r="C28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="24"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -1512,7 +1544,7 @@
       <c r="C29" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
@@ -1524,7 +1556,7 @@
       <c r="C30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="24"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
@@ -1536,7 +1568,7 @@
       <c r="C31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="24"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
@@ -1545,10 +1577,10 @@
       <c r="B32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="24"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -1560,7 +1592,7 @@
       <c r="C33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
@@ -1572,7 +1604,7 @@
       <c r="C34" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
@@ -1584,7 +1616,7 @@
       <c r="C35" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="24"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
@@ -1596,7 +1628,7 @@
       <c r="C36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="24"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -1608,7 +1640,7 @@
       <c r="C37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
@@ -1620,7 +1652,7 @@
       <c r="C38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
@@ -1632,7 +1664,7 @@
       <c r="C39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="24"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
@@ -1644,7 +1676,7 @@
       <c r="C40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="24"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -1656,10 +1688,10 @@
       <c r="C41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1673,7 +1705,7 @@
       <c r="C42" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="24"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -1685,7 +1717,7 @@
       <c r="C43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="24"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
@@ -1697,7 +1729,7 @@
       <c r="C44" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="24"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
@@ -1709,7 +1741,7 @@
       <c r="C45" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="24"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
@@ -1721,7 +1753,7 @@
       <c r="C46" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="24"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -1733,7 +1765,7 @@
       <c r="C47" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="24"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
@@ -1745,7 +1777,7 @@
       <c r="C48" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="24"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
@@ -1757,7 +1789,7 @@
       <c r="C49" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="24"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
@@ -1769,7 +1801,7 @@
       <c r="C50" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="24"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
@@ -1781,7 +1813,7 @@
       <c r="C51" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="24"/>
+      <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
@@ -1793,7 +1825,7 @@
       <c r="C52" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="24"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
@@ -1805,7 +1837,7 @@
       <c r="C53" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="24"/>
+      <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
@@ -1814,10 +1846,12 @@
       <c r="B54" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="24"/>
+      <c r="D54" s="23" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
@@ -1826,10 +1860,12 @@
       <c r="B55" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="24"/>
+      <c r="D55" s="23" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
@@ -1841,7 +1877,7 @@
       <c r="C56" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="24"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
@@ -1853,7 +1889,7 @@
       <c r="C57" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="24"/>
+      <c r="D57" s="23"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
@@ -1865,7 +1901,7 @@
       <c r="C58" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="24"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
@@ -1877,7 +1913,7 @@
       <c r="C59" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="24"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
@@ -1889,7 +1925,7 @@
       <c r="C60" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="24"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
@@ -1901,7 +1937,7 @@
       <c r="C61" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="24"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
@@ -1913,7 +1949,7 @@
       <c r="C62" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="24"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
@@ -1925,7 +1961,7 @@
       <c r="C63" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="24"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
@@ -1937,7 +1973,7 @@
       <c r="C64" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="24"/>
+      <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -1949,7 +1985,7 @@
       <c r="C65" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="24"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
@@ -1961,7 +1997,7 @@
       <c r="C66" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D66" s="24"/>
+      <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
@@ -1973,7 +2009,7 @@
       <c r="C67" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="24"/>
+      <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
@@ -1985,7 +2021,7 @@
       <c r="C68" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="24"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
@@ -1997,7 +2033,7 @@
       <c r="C69" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D69" s="24"/>
+      <c r="D69" s="23"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
@@ -2009,7 +2045,7 @@
       <c r="C70" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D70" s="24"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
@@ -2021,7 +2057,7 @@
       <c r="C71" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="24"/>
+      <c r="D71" s="23"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
@@ -2033,7 +2069,7 @@
       <c r="C72" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D72" s="24"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
@@ -2045,7 +2081,7 @@
       <c r="C73" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="24"/>
+      <c r="D73" s="23"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
@@ -2057,7 +2093,7 @@
       <c r="C74" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D74" s="24"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
@@ -2069,7 +2105,7 @@
       <c r="C75" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="24"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
@@ -2078,10 +2114,12 @@
       <c r="B76" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="24"/>
+      <c r="D76" s="23" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
@@ -2093,7 +2131,7 @@
       <c r="C77" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D77" s="24"/>
+      <c r="D77" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2259,7 +2297,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33D644C-0702-4680-A647-3F23A1C17400}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -2270,24 +2308,24 @@
     <col min="1" max="1" width="8.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="49.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="26" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2298,13 +2336,13 @@
       <c r="B2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2315,10 +2353,10 @@
       <c r="B3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2329,10 +2367,10 @@
       <c r="B4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2343,13 +2381,13 @@
       <c r="B5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2360,13 +2398,13 @@
       <c r="B6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2377,10 +2415,10 @@
       <c r="B7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2391,13 +2429,13 @@
       <c r="B8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2408,10 +2446,10 @@
       <c r="B9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2422,10 +2460,10 @@
       <c r="B10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2436,11 +2474,40 @@
       <c r="B11" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="26" t="str">
+        <f>'Blind 75'!D76</f>
+        <v>Can be done without heap. Heap solution requires getting count of a number and storing in hashmap. Then create a heap with these counts and then get the top k. The time taken would be O(mlgn) but alternatively better way is to use bucket sort. After getting the count of each int, add i to buckets indexed on count. Then iterate in reverse and get k values.</v>
       </c>
     </row>
   </sheetData>
@@ -2459,9 +2526,11 @@
     <hyperlink ref="C9" r:id="rId12" xr:uid="{375FA4AF-5531-41AC-B5A3-F1286E748366}"/>
     <hyperlink ref="C10" r:id="rId13" xr:uid="{5C8C17CF-FF27-44EF-9F7D-5697E279767F}"/>
     <hyperlink ref="C11" r:id="rId14" xr:uid="{A509631F-AAC7-443C-B840-A737F2A0F22D}"/>
+    <hyperlink ref="C12" r:id="rId15" xr:uid="{35EE9CA8-32A8-40FD-BD84-CC6E8C4DB9F3}"/>
+    <hyperlink ref="C13" r:id="rId16" xr:uid="{E8A61874-AC2A-4E82-BC60-89A4FCFFA464}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -2469,7 +2538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2E9C92-4073-4ED7-AA15-F248F8C57B6A}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2496,7 +2565,7 @@
       <c r="B2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>141</v>
       </c>
     </row>

--- a/Blind 75 cheatsheet.xlsx
+++ b/Blind 75 cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GIT\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F4D111-6C10-44E6-B2BE-BE6EAC416E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB19020E-F5FB-4689-8497-A1FDFDCE096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind 75" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="177">
   <si>
     <t>Domain</t>
   </si>
@@ -627,6 +627,15 @@
   </si>
   <si>
     <t>347. Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>84. Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Rectangles continue ahead. So maintain a stack of rectangles with start index and height in ascending order. Pop if this order break and update the max_area.</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -2297,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33D644C-0702-4680-A647-3F23A1C17400}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2508,6 +2517,20 @@
       <c r="D13" s="26" t="str">
         <f>'Blind 75'!D76</f>
         <v>Can be done without heap. Heap solution requires getting count of a number and storing in hashmap. Then create a heap with these counts and then get the top k. The time taken would be O(mlgn) but alternatively better way is to use bucket sort. After getting the count of each int, add i to buckets indexed on count. Then iterate in reverse and get k values.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2528,9 +2551,10 @@
     <hyperlink ref="C11" r:id="rId14" xr:uid="{A509631F-AAC7-443C-B840-A737F2A0F22D}"/>
     <hyperlink ref="C12" r:id="rId15" xr:uid="{35EE9CA8-32A8-40FD-BD84-CC6E8C4DB9F3}"/>
     <hyperlink ref="C13" r:id="rId16" xr:uid="{E8A61874-AC2A-4E82-BC60-89A4FCFFA464}"/>
+    <hyperlink ref="C14" r:id="rId17" xr:uid="{45161365-EE24-42A0-B3B5-E3240E112DED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
